--- a/DataFileSamples/TAS REE Trace Pearce Harker CIPW/Testing Data With Blanks.xlsx
+++ b/DataFileSamples/TAS REE Trace Pearce Harker CIPW/Testing Data With Blanks.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/TAS REE Trace Pearce Harker CIPW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FD324A68-F1E7-EF43-A776-DDF0402818B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{28CB3CA3-3BDA-1A4C-AF82-C01AED7A2215}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="560" windowWidth="33860" windowHeight="18960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="3" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表4" sheetId="5" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateCount="200" iterateDelta="9.9999999999999995E-7" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="125">
   <si>
     <t>Author</t>
   </si>
@@ -520,12 +522,261 @@
     <t>Fe2O3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>&lt; </t>
+  </si>
+  <si>
+    <t>&gt; </t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>r'$\sqrt{2}$'</t>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r'$e=mc^2$'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SiO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TiO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Al</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TFe</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Na</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$c^2$'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -610,8 +861,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +893,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFACFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +995,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,6 +1016,46 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -713,6 +1067,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFACFE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -722,6 +1081,204 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 112" descr="igures/linestyle-,.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186364C3-AC95-5B4F-8133-F29EF92D4CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="330200" y="1993900"/>
+          <a:ext cx="88900" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 112" descr="igures/linestyle-,.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA98CEC-739A-1946-A3F8-EA26A95D1AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3835400" y="2108200"/>
+          <a:ext cx="88900" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 112" descr="igures/linestyle-,.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF83F24-7562-C648-ADF0-277213A387FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6832600" y="1333500"/>
+          <a:ext cx="88900" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,11 +1543,4736 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BE15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" ht="30">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" ht="26">
+      <c r="A2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="16">
+        <v>20</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
+        <v>57.23</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="J2" s="16">
+        <v>17.04</v>
+      </c>
+      <c r="K2" s="16">
+        <v>6.93</v>
+      </c>
+      <c r="L2" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M2" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="N2" s="16">
+        <v>5.98</v>
+      </c>
+      <c r="O2" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="P2" s="16">
+        <v>2.35</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="R2" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="S2" s="16">
+        <v>99.83</v>
+      </c>
+      <c r="T2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="U2" s="16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="V2" s="16">
+        <v>2.36</v>
+      </c>
+      <c r="W2" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="X2" s="16">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>45.5</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>94.7</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>28.8</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>1024</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>222</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>844</v>
+      </c>
+      <c r="AM2" s="16">
+        <v>34.1</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="AP2" s="16">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AQ2" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="AR2" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="AS2" s="16">
+        <v>5.14</v>
+      </c>
+      <c r="AT2" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="AU2" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="AV2" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AW2" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="AX2" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="AY2" s="16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AZ2" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="BA2" s="16">
+        <v>5.71</v>
+      </c>
+      <c r="BB2" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BC2" s="16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="BD2" s="16">
+        <v>4.71</v>
+      </c>
+      <c r="BE2" s="16">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" ht="26">
+      <c r="A3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="16">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>58.37</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1.21</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16">
+        <v>7.03</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M3" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="N3" s="16">
+        <v>5.63</v>
+      </c>
+      <c r="O3" s="16">
+        <v>3.99</v>
+      </c>
+      <c r="P3" s="16">
+        <v>3.17</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="S3" s="16">
+        <v>99.8</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="U3" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="V3" s="16">
+        <v>3.49</v>
+      </c>
+      <c r="W3" s="16">
+        <v>14.3</v>
+      </c>
+      <c r="X3" s="16">
+        <v>131</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>18.8</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>34.6</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>21.4</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>99.7</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>1.39</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>102</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>715</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>330</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>15.9</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>3.24</v>
+      </c>
+      <c r="AL3" s="16">
+        <v>890</v>
+      </c>
+      <c r="AM3" s="16">
+        <v>54.4</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>114</v>
+      </c>
+      <c r="AO3" s="16">
+        <v>13.9</v>
+      </c>
+      <c r="AP3" s="16">
+        <v>54.7</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>9.9</v>
+      </c>
+      <c r="AR3" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="AS3" s="16">
+        <v>8.15</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="AU3" s="16">
+        <v>5.66</v>
+      </c>
+      <c r="AV3" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="AW3" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AZ3" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="BA3" s="16">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="BB3" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="BC3" s="16">
+        <v>22.3</v>
+      </c>
+      <c r="BD3" s="16">
+        <v>12</v>
+      </c>
+      <c r="BE3" s="16">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="26">
+      <c r="A4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="16">
+        <v>20</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
+        <v>50.29</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1.98</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M4" s="16">
+        <v>6.34</v>
+      </c>
+      <c r="N4" s="16">
+        <v>7.34</v>
+      </c>
+      <c r="O4" s="16">
+        <v>3.61</v>
+      </c>
+      <c r="P4" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="R4" s="16">
+        <v>1.67</v>
+      </c>
+      <c r="S4" s="16">
+        <v>99.57</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U4" s="16">
+        <v>23.3</v>
+      </c>
+      <c r="V4" s="16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="W4" s="16">
+        <v>19</v>
+      </c>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16">
+        <v>20.2</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>31.8</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>870</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>24.6</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>264</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>15.2</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>13.3</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>589</v>
+      </c>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16">
+        <v>82.5</v>
+      </c>
+      <c r="AO4" s="16">
+        <v>10.7</v>
+      </c>
+      <c r="AP4" s="16">
+        <v>45.9</v>
+      </c>
+      <c r="AQ4" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="AR4" s="16">
+        <v>2.44</v>
+      </c>
+      <c r="AS4" s="16">
+        <v>7.94</v>
+      </c>
+      <c r="AT4" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="AW4" s="16">
+        <v>2.54</v>
+      </c>
+      <c r="AX4" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="AY4" s="16">
+        <v>2.09</v>
+      </c>
+      <c r="AZ4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="BA4" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="BB4" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="BC4" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="BD4" s="16">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="BE4" s="16">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="26">
+      <c r="A5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="16">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>52.25</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2.31</v>
+      </c>
+      <c r="J5" s="16">
+        <v>15.43</v>
+      </c>
+      <c r="K5" s="16">
+        <v>10.31</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M5" s="16">
+        <v>3.78</v>
+      </c>
+      <c r="N5" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="O5" s="16">
+        <v>3.59</v>
+      </c>
+      <c r="P5" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1</v>
+      </c>
+      <c r="R5" s="16">
+        <v>1.92</v>
+      </c>
+      <c r="S5" s="16">
+        <v>99.52</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="U5" s="16">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="V5" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="W5" s="16">
+        <v>18</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16">
+        <v>23</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>32.9</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>1025</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>415</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>23.8</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>1012</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>152</v>
+      </c>
+      <c r="AO5" s="16">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="16">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AQ5" s="16">
+        <v>14.5</v>
+      </c>
+      <c r="AR5" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="AS5" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>1.45</v>
+      </c>
+      <c r="AU5" s="16">
+        <v>7.21</v>
+      </c>
+      <c r="AV5" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="AW5" s="16">
+        <v>3.13</v>
+      </c>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16">
+        <v>2.56</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="BC5" s="16">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BD5" s="16">
+        <v>7.34</v>
+      </c>
+      <c r="BE5" s="16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="26">
+      <c r="A6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="16">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>53.01</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2.27</v>
+      </c>
+      <c r="J6" s="16">
+        <v>16.13</v>
+      </c>
+      <c r="K6" s="16">
+        <v>9.86</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="M6" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="N6" s="16">
+        <v>6.39</v>
+      </c>
+      <c r="O6" s="16">
+        <v>3.94</v>
+      </c>
+      <c r="P6" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="R6" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="S6" s="16">
+        <v>99.51</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0.39</v>
+      </c>
+      <c r="U6" s="16">
+        <v>25.1</v>
+      </c>
+      <c r="V6" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="W6" s="16">
+        <v>18</v>
+      </c>
+      <c r="X6" s="16">
+        <v>207</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>24.7</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>22.6</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>138</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>24.1</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>1.44</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>60.4</v>
+      </c>
+      <c r="AG6" s="16">
+        <v>902</v>
+      </c>
+      <c r="AH6" s="16">
+        <v>32.1</v>
+      </c>
+      <c r="AI6" s="16">
+        <v>419</v>
+      </c>
+      <c r="AJ6" s="16">
+        <v>21.4</v>
+      </c>
+      <c r="AK6" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="AL6" s="16">
+        <v>1021</v>
+      </c>
+      <c r="AM6" s="16">
+        <v>72</v>
+      </c>
+      <c r="AN6" s="16">
+        <v>156</v>
+      </c>
+      <c r="AO6" s="16">
+        <v>20</v>
+      </c>
+      <c r="AP6" s="16">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AQ6" s="16">
+        <v>14.1</v>
+      </c>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="AT6" s="16">
+        <v>1.43</v>
+      </c>
+      <c r="AU6" s="16">
+        <v>7.18</v>
+      </c>
+      <c r="AV6" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="AW6" s="16">
+        <v>3.22</v>
+      </c>
+      <c r="AX6" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="AY6" s="16">
+        <v>2.63</v>
+      </c>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BB6" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="BC6" s="16">
+        <v>21.3</v>
+      </c>
+      <c r="BD6" s="16">
+        <v>9.39</v>
+      </c>
+      <c r="BE6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="26">
+      <c r="A7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="16">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>53.64</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="J7" s="16">
+        <v>15.83</v>
+      </c>
+      <c r="K7" s="16">
+        <v>7.85</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3.01</v>
+      </c>
+      <c r="N7" s="16">
+        <v>7.59</v>
+      </c>
+      <c r="O7" s="16">
+        <v>3.56</v>
+      </c>
+      <c r="P7" s="16">
+        <v>2.34</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="R7" s="16">
+        <v>3.65</v>
+      </c>
+      <c r="S7" s="16">
+        <v>99.6</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="U7" s="16">
+        <v>11.9</v>
+      </c>
+      <c r="V7" s="16">
+        <v>2.63</v>
+      </c>
+      <c r="W7" s="16">
+        <v>16.7</v>
+      </c>
+      <c r="X7" s="16">
+        <v>158</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>23.7</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>101</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>20.8</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>92.8</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>941</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>30.4</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>280</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>13.6</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>830</v>
+      </c>
+      <c r="AM7" s="16">
+        <v>48.2</v>
+      </c>
+      <c r="AN7" s="16">
+        <v>102</v>
+      </c>
+      <c r="AO7" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="AP7" s="16">
+        <v>50.9</v>
+      </c>
+      <c r="AQ7" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="AR7" s="16">
+        <v>2.29</v>
+      </c>
+      <c r="AS7" s="16">
+        <v>7.53</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU7" s="16">
+        <v>4.79</v>
+      </c>
+      <c r="AV7" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="AW7" s="16">
+        <v>2.21</v>
+      </c>
+      <c r="AX7" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AY7" s="16">
+        <v>1.86</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="BA7" s="16">
+        <v>7.09</v>
+      </c>
+      <c r="BB7" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="BC7" s="16">
+        <v>19.8</v>
+      </c>
+      <c r="BD7" s="16">
+        <v>7.16</v>
+      </c>
+      <c r="BE7" s="16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="26">
+      <c r="A8" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="16">
+        <v>200</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>54.6</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1.79</v>
+      </c>
+      <c r="J8" s="16">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="K8" s="16">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="N8" s="16">
+        <v>6.43</v>
+      </c>
+      <c r="O8" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="P8" s="16">
+        <v>2.41</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="R8" s="16">
+        <v>1.88</v>
+      </c>
+      <c r="S8" s="16">
+        <v>99.94</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="U8" s="16">
+        <v>21.8</v>
+      </c>
+      <c r="V8" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="W8" s="16">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="X8" s="16">
+        <v>160</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>105</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>30.7</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>28.2</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>106</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>22.2</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>59.3</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>995</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>25.2</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>337</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>17.8</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>1080</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>56.1</v>
+      </c>
+      <c r="AN8" s="16">
+        <v>119</v>
+      </c>
+      <c r="AO8" s="16">
+        <v>14.8</v>
+      </c>
+      <c r="AP8" s="16">
+        <v>60.4</v>
+      </c>
+      <c r="AQ8" s="16">
+        <v>10.8</v>
+      </c>
+      <c r="AR8" s="16">
+        <v>2.69</v>
+      </c>
+      <c r="AS8" s="16">
+        <v>9.09</v>
+      </c>
+      <c r="AT8" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AU8" s="16">
+        <v>5.82</v>
+      </c>
+      <c r="AV8" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="AW8" s="16">
+        <v>2.63</v>
+      </c>
+      <c r="AX8" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="AY8" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="AZ8" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="BA8" s="16">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="BB8" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BC8" s="16">
+        <v>18.7</v>
+      </c>
+      <c r="BD8" s="16">
+        <v>8.66</v>
+      </c>
+      <c r="BE8" s="16">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="26">
+      <c r="A9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="16">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
+        <v>48.66</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="J9" s="16">
+        <v>15.31</v>
+      </c>
+      <c r="K9" s="16">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M9" s="16">
+        <v>9.59</v>
+      </c>
+      <c r="N9" s="16">
+        <v>8.18</v>
+      </c>
+      <c r="O9" s="16">
+        <v>3.14</v>
+      </c>
+      <c r="P9" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="S9" s="16">
+        <v>99.56</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="U9" s="16">
+        <v>17</v>
+      </c>
+      <c r="V9" s="16">
+        <v>1.76</v>
+      </c>
+      <c r="W9" s="16">
+        <v>25.9</v>
+      </c>
+      <c r="X9" s="16">
+        <v>211</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>466</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>43.4</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>200</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>53.4</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>77</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>17.3</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>29</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>700</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>150</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>9.6</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>3.29</v>
+      </c>
+      <c r="AL9" s="16">
+        <v>594</v>
+      </c>
+      <c r="AM9" s="16">
+        <v>21.5</v>
+      </c>
+      <c r="AN9" s="16">
+        <v>47.1</v>
+      </c>
+      <c r="AO9" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="AP9" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="AQ9" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="AR9" s="16">
+        <v>1.68</v>
+      </c>
+      <c r="AS9" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="AT9" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="AU9" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AV9" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="AW9" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AX9" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="AY9" s="16">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AZ9" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="BA9" s="16">
+        <v>4.08</v>
+      </c>
+      <c r="BB9" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="BC9" s="16">
+        <v>11.2</v>
+      </c>
+      <c r="BD9" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="BE9" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="13" spans="1:57">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:57">
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:57">
+      <c r="C15" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73430DF0-0BDA-5147-9BDF-AF882DDFB071}">
+  <dimension ref="A1:BE9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:BE9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:57" ht="30">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" ht="26">
+      <c r="A2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="16">
+        <v>20</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
+        <v>57.23</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="J2" s="16">
+        <v>17.04</v>
+      </c>
+      <c r="K2" s="16">
+        <v>6.93</v>
+      </c>
+      <c r="L2" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M2" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="N2" s="16">
+        <v>5.98</v>
+      </c>
+      <c r="O2" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="P2" s="16">
+        <v>2.35</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="R2" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="S2" s="16">
+        <v>99.83</v>
+      </c>
+      <c r="T2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="U2" s="16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="V2" s="16">
+        <v>2.36</v>
+      </c>
+      <c r="W2" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="X2" s="16">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>45.5</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>94.7</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>28.8</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>1024</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>222</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>844</v>
+      </c>
+      <c r="AM2" s="16">
+        <v>34.1</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="AP2" s="16">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AQ2" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="AR2" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="AS2" s="16">
+        <v>5.14</v>
+      </c>
+      <c r="AT2" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="AU2" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="AV2" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AW2" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="AX2" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="AY2" s="16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AZ2" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="BA2" s="16">
+        <v>5.71</v>
+      </c>
+      <c r="BB2" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BC2" s="16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="BD2" s="16">
+        <v>4.71</v>
+      </c>
+      <c r="BE2" s="16">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" ht="26">
+      <c r="A3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="16">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>58.37</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1.21</v>
+      </c>
+      <c r="J3" s="16">
+        <v>15.84</v>
+      </c>
+      <c r="K3" s="16">
+        <v>7.03</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M3" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="N3" s="16">
+        <v>5.63</v>
+      </c>
+      <c r="O3" s="16">
+        <v>3.99</v>
+      </c>
+      <c r="P3" s="16">
+        <v>3.17</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="S3" s="16">
+        <v>99.8</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="U3" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="V3" s="16">
+        <v>3.49</v>
+      </c>
+      <c r="W3" s="16">
+        <v>14.3</v>
+      </c>
+      <c r="X3" s="16">
+        <v>131</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>18.8</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>34.6</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>21.4</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>99.7</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>1.39</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>102</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>715</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>330</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>15.9</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>3.24</v>
+      </c>
+      <c r="AL3" s="16">
+        <v>890</v>
+      </c>
+      <c r="AM3" s="16">
+        <v>54.4</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>114</v>
+      </c>
+      <c r="AO3" s="16">
+        <v>13.9</v>
+      </c>
+      <c r="AP3" s="16">
+        <v>54.7</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>9.9</v>
+      </c>
+      <c r="AR3" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="AS3" s="16">
+        <v>8.15</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="AU3" s="16">
+        <v>5.66</v>
+      </c>
+      <c r="AV3" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="AW3" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="AX3" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="AY3" s="16">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AZ3" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="BA3" s="16">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="BB3" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="BC3" s="16">
+        <v>22.3</v>
+      </c>
+      <c r="BD3" s="16">
+        <v>12</v>
+      </c>
+      <c r="BE3" s="16">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="26">
+      <c r="A4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="16">
+        <v>20</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
+        <v>50.29</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1.98</v>
+      </c>
+      <c r="J4" s="16">
+        <v>15.76</v>
+      </c>
+      <c r="K4" s="16">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M4" s="16">
+        <v>6.34</v>
+      </c>
+      <c r="N4" s="16">
+        <v>7.34</v>
+      </c>
+      <c r="O4" s="16">
+        <v>3.61</v>
+      </c>
+      <c r="P4" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="R4" s="16">
+        <v>1.67</v>
+      </c>
+      <c r="S4" s="16">
+        <v>99.57</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U4" s="16">
+        <v>23.3</v>
+      </c>
+      <c r="V4" s="16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="W4" s="16">
+        <v>19</v>
+      </c>
+      <c r="X4" s="16">
+        <v>184</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>97.9</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>29.2</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>105</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>20.2</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>31.8</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>870</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>24.6</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>264</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>15.2</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>13.3</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>589</v>
+      </c>
+      <c r="AM4" s="16">
+        <v>36.6</v>
+      </c>
+      <c r="AN4" s="16">
+        <v>82.5</v>
+      </c>
+      <c r="AO4" s="16">
+        <v>10.7</v>
+      </c>
+      <c r="AP4" s="16">
+        <v>45.9</v>
+      </c>
+      <c r="AQ4" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="AR4" s="16">
+        <v>2.44</v>
+      </c>
+      <c r="AS4" s="16">
+        <v>7.94</v>
+      </c>
+      <c r="AT4" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="AU4" s="16">
+        <v>5.55</v>
+      </c>
+      <c r="AV4" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="AW4" s="16">
+        <v>2.54</v>
+      </c>
+      <c r="AX4" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="AY4" s="16">
+        <v>2.09</v>
+      </c>
+      <c r="AZ4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="BA4" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="BB4" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="BC4" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="BD4" s="16">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="BE4" s="16">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="26">
+      <c r="A5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="16">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>52.25</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2.31</v>
+      </c>
+      <c r="J5" s="16">
+        <v>15.43</v>
+      </c>
+      <c r="K5" s="16">
+        <v>10.31</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M5" s="16">
+        <v>3.78</v>
+      </c>
+      <c r="N5" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="O5" s="16">
+        <v>3.59</v>
+      </c>
+      <c r="P5" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1</v>
+      </c>
+      <c r="R5" s="16">
+        <v>1.92</v>
+      </c>
+      <c r="S5" s="16">
+        <v>99.52</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="U5" s="16">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="V5" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="W5" s="16">
+        <v>18</v>
+      </c>
+      <c r="X5" s="16">
+        <v>164</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>91.5</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>28.7</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>29.5</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>20.2</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>149</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>23</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>32.9</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>1025</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>415</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>23.8</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>1012</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>152</v>
+      </c>
+      <c r="AO5" s="16">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="16">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AQ5" s="16">
+        <v>14.5</v>
+      </c>
+      <c r="AR5" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="AS5" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>1.45</v>
+      </c>
+      <c r="AU5" s="16">
+        <v>7.21</v>
+      </c>
+      <c r="AV5" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="AW5" s="16">
+        <v>3.13</v>
+      </c>
+      <c r="AX5" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="AY5" s="16">
+        <v>2.56</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="BA5" s="16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BB5" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="BC5" s="16">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BD5" s="16">
+        <v>7.34</v>
+      </c>
+      <c r="BE5" s="16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="26">
+      <c r="A6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="16">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>53.01</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2.27</v>
+      </c>
+      <c r="J6" s="16">
+        <v>16.13</v>
+      </c>
+      <c r="K6" s="16">
+        <v>9.86</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="M6" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="N6" s="16">
+        <v>6.39</v>
+      </c>
+      <c r="O6" s="16">
+        <v>3.94</v>
+      </c>
+      <c r="P6" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="R6" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="S6" s="16">
+        <v>99.51</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0.39</v>
+      </c>
+      <c r="U6" s="16">
+        <v>25.1</v>
+      </c>
+      <c r="V6" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="W6" s="16">
+        <v>18</v>
+      </c>
+      <c r="X6" s="16">
+        <v>207</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>24.7</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>22.6</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>138</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>24.1</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>1.44</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>60.4</v>
+      </c>
+      <c r="AG6" s="16">
+        <v>902</v>
+      </c>
+      <c r="AH6" s="16">
+        <v>32.1</v>
+      </c>
+      <c r="AI6" s="16">
+        <v>419</v>
+      </c>
+      <c r="AJ6" s="16">
+        <v>21.4</v>
+      </c>
+      <c r="AK6" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="AL6" s="16">
+        <v>1021</v>
+      </c>
+      <c r="AM6" s="16">
+        <v>72</v>
+      </c>
+      <c r="AN6" s="16">
+        <v>156</v>
+      </c>
+      <c r="AO6" s="16">
+        <v>20</v>
+      </c>
+      <c r="AP6" s="16">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AQ6" s="16">
+        <v>14.1</v>
+      </c>
+      <c r="AR6" s="16">
+        <v>3.32</v>
+      </c>
+      <c r="AS6" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="AT6" s="16">
+        <v>1.43</v>
+      </c>
+      <c r="AU6" s="16">
+        <v>7.18</v>
+      </c>
+      <c r="AV6" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="AW6" s="16">
+        <v>3.22</v>
+      </c>
+      <c r="AX6" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="AY6" s="16">
+        <v>2.63</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="BA6" s="16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BB6" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="BC6" s="16">
+        <v>21.3</v>
+      </c>
+      <c r="BD6" s="16">
+        <v>9.39</v>
+      </c>
+      <c r="BE6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="26">
+      <c r="A7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="16">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>53.64</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="J7" s="16">
+        <v>15.83</v>
+      </c>
+      <c r="K7" s="16">
+        <v>7.85</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3.01</v>
+      </c>
+      <c r="N7" s="16">
+        <v>7.59</v>
+      </c>
+      <c r="O7" s="16">
+        <v>3.56</v>
+      </c>
+      <c r="P7" s="16">
+        <v>2.34</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="R7" s="16">
+        <v>3.65</v>
+      </c>
+      <c r="S7" s="16">
+        <v>99.6</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="U7" s="16">
+        <v>11.9</v>
+      </c>
+      <c r="V7" s="16">
+        <v>2.63</v>
+      </c>
+      <c r="W7" s="16">
+        <v>16.7</v>
+      </c>
+      <c r="X7" s="16">
+        <v>158</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>23.7</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>101</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>20.8</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>92.8</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>941</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>30.4</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>280</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>13.6</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>830</v>
+      </c>
+      <c r="AM7" s="16">
+        <v>48.2</v>
+      </c>
+      <c r="AN7" s="16">
+        <v>102</v>
+      </c>
+      <c r="AO7" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="AP7" s="16">
+        <v>50.9</v>
+      </c>
+      <c r="AQ7" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="AR7" s="16">
+        <v>2.29</v>
+      </c>
+      <c r="AS7" s="16">
+        <v>7.53</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU7" s="16">
+        <v>4.79</v>
+      </c>
+      <c r="AV7" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="AW7" s="16">
+        <v>2.21</v>
+      </c>
+      <c r="AX7" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AY7" s="16">
+        <v>1.86</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="BA7" s="16">
+        <v>7.09</v>
+      </c>
+      <c r="BB7" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="BC7" s="16">
+        <v>19.8</v>
+      </c>
+      <c r="BD7" s="16">
+        <v>7.16</v>
+      </c>
+      <c r="BE7" s="16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="26">
+      <c r="A8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="16">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>54.6</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1.79</v>
+      </c>
+      <c r="J8" s="16">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="K8" s="16">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="N8" s="16">
+        <v>6.43</v>
+      </c>
+      <c r="O8" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="P8" s="16">
+        <v>2.41</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="R8" s="16">
+        <v>1.88</v>
+      </c>
+      <c r="S8" s="16">
+        <v>99.94</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="U8" s="16">
+        <v>21.8</v>
+      </c>
+      <c r="V8" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="W8" s="16">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="X8" s="16">
+        <v>160</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>105</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>30.7</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>28.2</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>106</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>22.2</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>59.3</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>995</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>25.2</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>337</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>17.8</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>1080</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>56.1</v>
+      </c>
+      <c r="AN8" s="16">
+        <v>119</v>
+      </c>
+      <c r="AO8" s="16">
+        <v>14.8</v>
+      </c>
+      <c r="AP8" s="16">
+        <v>60.4</v>
+      </c>
+      <c r="AQ8" s="16">
+        <v>10.8</v>
+      </c>
+      <c r="AR8" s="16">
+        <v>2.69</v>
+      </c>
+      <c r="AS8" s="16">
+        <v>9.09</v>
+      </c>
+      <c r="AT8" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AU8" s="16">
+        <v>5.82</v>
+      </c>
+      <c r="AV8" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="AW8" s="16">
+        <v>2.63</v>
+      </c>
+      <c r="AX8" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="AY8" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="AZ8" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="BA8" s="16">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="BB8" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BC8" s="16">
+        <v>18.7</v>
+      </c>
+      <c r="BD8" s="16">
+        <v>8.66</v>
+      </c>
+      <c r="BE8" s="16">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="26">
+      <c r="A9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="16">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
+        <v>48.66</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="J9" s="16">
+        <v>15.31</v>
+      </c>
+      <c r="K9" s="16">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M9" s="16">
+        <v>9.59</v>
+      </c>
+      <c r="N9" s="16">
+        <v>8.18</v>
+      </c>
+      <c r="O9" s="16">
+        <v>3.14</v>
+      </c>
+      <c r="P9" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="S9" s="16">
+        <v>99.56</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="U9" s="16">
+        <v>17</v>
+      </c>
+      <c r="V9" s="16">
+        <v>1.76</v>
+      </c>
+      <c r="W9" s="16">
+        <v>25.9</v>
+      </c>
+      <c r="X9" s="16">
+        <v>211</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>466</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>43.4</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>200</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>53.4</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>77</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>17.3</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>29</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>700</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>150</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>9.6</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>3.29</v>
+      </c>
+      <c r="AL9" s="16">
+        <v>594</v>
+      </c>
+      <c r="AM9" s="16">
+        <v>21.5</v>
+      </c>
+      <c r="AN9" s="16">
+        <v>47.1</v>
+      </c>
+      <c r="AO9" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="AP9" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="AQ9" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="AR9" s="16">
+        <v>1.68</v>
+      </c>
+      <c r="AS9" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="AT9" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="AU9" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AV9" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="AW9" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AX9" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="AY9" s="16">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AZ9" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="BA9" s="16">
+        <v>4.08</v>
+      </c>
+      <c r="BB9" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="BC9" s="16">
+        <v>11.2</v>
+      </c>
+      <c r="BD9" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="BE9" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D72410-68FD-194A-A9E6-EF0845A91538}">
+  <dimension ref="A1:BF9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:BF9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:58" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>57.23</v>
+      </c>
+      <c r="J2">
+        <v>1.23</v>
+      </c>
+      <c r="K2">
+        <v>17.04</v>
+      </c>
+      <c r="L2">
+        <v>6.93</v>
+      </c>
+      <c r="M2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N2">
+        <v>3.4</v>
+      </c>
+      <c r="O2">
+        <v>5.98</v>
+      </c>
+      <c r="P2">
+        <v>4.13</v>
+      </c>
+      <c r="Q2">
+        <v>2.35</v>
+      </c>
+      <c r="R2">
+        <v>0.42</v>
+      </c>
+      <c r="S2">
+        <v>1.05</v>
+      </c>
+      <c r="T2">
+        <v>99.83</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+      <c r="V2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W2">
+        <v>2.36</v>
+      </c>
+      <c r="X2">
+        <v>7.5</v>
+      </c>
+      <c r="Y2">
+        <v>148</v>
+      </c>
+      <c r="Z2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AA2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>45.5</v>
+      </c>
+      <c r="AC2">
+        <v>30</v>
+      </c>
+      <c r="AD2">
+        <v>94.7</v>
+      </c>
+      <c r="AE2">
+        <v>21.7</v>
+      </c>
+      <c r="AF2">
+        <v>1.07</v>
+      </c>
+      <c r="AG2">
+        <v>28.8</v>
+      </c>
+      <c r="AH2">
+        <v>1024</v>
+      </c>
+      <c r="AI2">
+        <v>12</v>
+      </c>
+      <c r="AJ2">
+        <v>222</v>
+      </c>
+      <c r="AK2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AL2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>844</v>
+      </c>
+      <c r="AN2">
+        <v>34.1</v>
+      </c>
+      <c r="AO2">
+        <v>74</v>
+      </c>
+      <c r="AP2">
+        <v>9.1</v>
+      </c>
+      <c r="AQ2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AR2">
+        <v>6.5</v>
+      </c>
+      <c r="AS2">
+        <v>1.75</v>
+      </c>
+      <c r="AT2">
+        <v>5.14</v>
+      </c>
+      <c r="AU2">
+        <v>0.62</v>
+      </c>
+      <c r="AV2">
+        <v>3.05</v>
+      </c>
+      <c r="AW2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AX2">
+        <v>1.35</v>
+      </c>
+      <c r="AY2">
+        <v>0.18</v>
+      </c>
+      <c r="AZ2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BA2">
+        <v>0.16</v>
+      </c>
+      <c r="BB2">
+        <v>5.71</v>
+      </c>
+      <c r="BC2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BD2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="BE2">
+        <v>4.71</v>
+      </c>
+      <c r="BF2">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>58.37</v>
+      </c>
+      <c r="J3">
+        <v>1.21</v>
+      </c>
+      <c r="K3">
+        <v>15.84</v>
+      </c>
+      <c r="L3">
+        <v>7.03</v>
+      </c>
+      <c r="M3">
+        <v>0.13</v>
+      </c>
+      <c r="N3">
+        <v>3.05</v>
+      </c>
+      <c r="O3">
+        <v>5.63</v>
+      </c>
+      <c r="P3">
+        <v>3.99</v>
+      </c>
+      <c r="Q3">
+        <v>3.17</v>
+      </c>
+      <c r="R3">
+        <v>0.44</v>
+      </c>
+      <c r="S3">
+        <v>0.94</v>
+      </c>
+      <c r="T3">
+        <v>99.8</v>
+      </c>
+      <c r="U3">
+        <v>0.46</v>
+      </c>
+      <c r="V3">
+        <v>28.5</v>
+      </c>
+      <c r="W3">
+        <v>3.49</v>
+      </c>
+      <c r="X3">
+        <v>14.3</v>
+      </c>
+      <c r="Y3">
+        <v>131</v>
+      </c>
+      <c r="Z3">
+        <v>75</v>
+      </c>
+      <c r="AA3">
+        <v>18.8</v>
+      </c>
+      <c r="AB3">
+        <v>34.6</v>
+      </c>
+      <c r="AC3">
+        <v>21.4</v>
+      </c>
+      <c r="AD3">
+        <v>99.7</v>
+      </c>
+      <c r="AE3">
+        <v>21.7</v>
+      </c>
+      <c r="AF3">
+        <v>1.39</v>
+      </c>
+      <c r="AG3">
+        <v>102</v>
+      </c>
+      <c r="AH3">
+        <v>715</v>
+      </c>
+      <c r="AI3">
+        <v>26</v>
+      </c>
+      <c r="AJ3">
+        <v>330</v>
+      </c>
+      <c r="AK3">
+        <v>15.9</v>
+      </c>
+      <c r="AL3">
+        <v>3.24</v>
+      </c>
+      <c r="AM3">
+        <v>890</v>
+      </c>
+      <c r="AN3">
+        <v>54.4</v>
+      </c>
+      <c r="AO3">
+        <v>114</v>
+      </c>
+      <c r="AP3">
+        <v>13.9</v>
+      </c>
+      <c r="AQ3">
+        <v>54.7</v>
+      </c>
+      <c r="AR3">
+        <v>9.9</v>
+      </c>
+      <c r="AS3">
+        <v>2.1</v>
+      </c>
+      <c r="AT3">
+        <v>8.15</v>
+      </c>
+      <c r="AU3">
+        <v>1.07</v>
+      </c>
+      <c r="AV3">
+        <v>5.66</v>
+      </c>
+      <c r="AW3">
+        <v>1.06</v>
+      </c>
+      <c r="AX3">
+        <v>2.76</v>
+      </c>
+      <c r="AY3">
+        <v>0.4</v>
+      </c>
+      <c r="AZ3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="BA3">
+        <v>0.37</v>
+      </c>
+      <c r="BB3">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="BC3">
+        <v>1.08</v>
+      </c>
+      <c r="BD3">
+        <v>22.3</v>
+      </c>
+      <c r="BE3">
+        <v>12</v>
+      </c>
+      <c r="BF3">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
+      <c r="A4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>50.29</v>
+      </c>
+      <c r="J4">
+        <v>1.98</v>
+      </c>
+      <c r="K4">
+        <v>15.76</v>
+      </c>
+      <c r="L4">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.13</v>
+      </c>
+      <c r="N4">
+        <v>6.34</v>
+      </c>
+      <c r="O4">
+        <v>7.34</v>
+      </c>
+      <c r="P4">
+        <v>3.61</v>
+      </c>
+      <c r="Q4">
+        <v>1.64</v>
+      </c>
+      <c r="R4">
+        <v>0.6</v>
+      </c>
+      <c r="S4">
+        <v>1.67</v>
+      </c>
+      <c r="T4">
+        <v>99.57</v>
+      </c>
+      <c r="U4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V4">
+        <v>23.3</v>
+      </c>
+      <c r="W4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="X4">
+        <v>19</v>
+      </c>
+      <c r="Y4">
+        <v>184</v>
+      </c>
+      <c r="Z4">
+        <v>179</v>
+      </c>
+      <c r="AA4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AB4">
+        <v>97.9</v>
+      </c>
+      <c r="AC4">
+        <v>29.2</v>
+      </c>
+      <c r="AD4">
+        <v>105</v>
+      </c>
+      <c r="AE4">
+        <v>20.2</v>
+      </c>
+      <c r="AF4">
+        <v>1.27</v>
+      </c>
+      <c r="AG4">
+        <v>31.8</v>
+      </c>
+      <c r="AH4">
+        <v>870</v>
+      </c>
+      <c r="AI4">
+        <v>24.6</v>
+      </c>
+      <c r="AJ4">
+        <v>264</v>
+      </c>
+      <c r="AK4">
+        <v>15.2</v>
+      </c>
+      <c r="AL4">
+        <v>13.3</v>
+      </c>
+      <c r="AM4">
+        <v>589</v>
+      </c>
+      <c r="AN4">
+        <v>36.6</v>
+      </c>
+      <c r="AO4">
+        <v>82.5</v>
+      </c>
+      <c r="AP4">
+        <v>10.7</v>
+      </c>
+      <c r="AQ4">
+        <v>45.9</v>
+      </c>
+      <c r="AR4">
+        <v>9.1</v>
+      </c>
+      <c r="AS4">
+        <v>2.44</v>
+      </c>
+      <c r="AT4">
+        <v>7.94</v>
+      </c>
+      <c r="AU4">
+        <v>1.05</v>
+      </c>
+      <c r="AV4">
+        <v>5.55</v>
+      </c>
+      <c r="AW4">
+        <v>1.03</v>
+      </c>
+      <c r="AX4">
+        <v>2.54</v>
+      </c>
+      <c r="AY4">
+        <v>0.35</v>
+      </c>
+      <c r="AZ4">
+        <v>2.09</v>
+      </c>
+      <c r="BA4">
+        <v>0.3</v>
+      </c>
+      <c r="BB4">
+        <v>6.6</v>
+      </c>
+      <c r="BC4">
+        <v>1.03</v>
+      </c>
+      <c r="BD4">
+        <v>11.6</v>
+      </c>
+      <c r="BE4">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="BF4">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>52.25</v>
+      </c>
+      <c r="J5">
+        <v>2.31</v>
+      </c>
+      <c r="K5">
+        <v>15.43</v>
+      </c>
+      <c r="L5">
+        <v>10.31</v>
+      </c>
+      <c r="M5">
+        <v>0.13</v>
+      </c>
+      <c r="N5">
+        <v>3.78</v>
+      </c>
+      <c r="O5">
+        <v>7.1</v>
+      </c>
+      <c r="P5">
+        <v>3.59</v>
+      </c>
+      <c r="Q5">
+        <v>1.7</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1.92</v>
+      </c>
+      <c r="T5">
+        <v>99.52</v>
+      </c>
+      <c r="U5">
+        <v>0.42</v>
+      </c>
+      <c r="V5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="W5">
+        <v>3.15</v>
+      </c>
+      <c r="X5">
+        <v>18</v>
+      </c>
+      <c r="Y5">
+        <v>164</v>
+      </c>
+      <c r="Z5">
+        <v>91.5</v>
+      </c>
+      <c r="AA5">
+        <v>28.7</v>
+      </c>
+      <c r="AB5">
+        <v>29.5</v>
+      </c>
+      <c r="AC5">
+        <v>20.2</v>
+      </c>
+      <c r="AD5">
+        <v>149</v>
+      </c>
+      <c r="AE5">
+        <v>23</v>
+      </c>
+      <c r="AF5">
+        <v>1.57</v>
+      </c>
+      <c r="AG5">
+        <v>32.9</v>
+      </c>
+      <c r="AH5">
+        <v>1025</v>
+      </c>
+      <c r="AI5">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AJ5">
+        <v>415</v>
+      </c>
+      <c r="AK5">
+        <v>23.8</v>
+      </c>
+      <c r="AL5">
+        <v>1.9</v>
+      </c>
+      <c r="AM5">
+        <v>1012</v>
+      </c>
+      <c r="AN5">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AO5">
+        <v>152</v>
+      </c>
+      <c r="AP5">
+        <v>20</v>
+      </c>
+      <c r="AQ5">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AR5">
+        <v>14.5</v>
+      </c>
+      <c r="AS5">
+        <v>3.2</v>
+      </c>
+      <c r="AT5">
+        <v>11.6</v>
+      </c>
+      <c r="AU5">
+        <v>1.45</v>
+      </c>
+      <c r="AV5">
+        <v>7.21</v>
+      </c>
+      <c r="AW5">
+        <v>1.28</v>
+      </c>
+      <c r="AX5">
+        <v>3.13</v>
+      </c>
+      <c r="AY5">
+        <v>0.42</v>
+      </c>
+      <c r="AZ5">
+        <v>2.56</v>
+      </c>
+      <c r="BA5">
+        <v>0.36</v>
+      </c>
+      <c r="BB5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BC5">
+        <v>1.33</v>
+      </c>
+      <c r="BD5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BE5">
+        <v>7.34</v>
+      </c>
+      <c r="BF5">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>0.6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>53.01</v>
+      </c>
+      <c r="J6">
+        <v>2.27</v>
+      </c>
+      <c r="K6">
+        <v>16.13</v>
+      </c>
+      <c r="L6">
+        <v>9.86</v>
+      </c>
+      <c r="M6">
+        <v>0.09</v>
+      </c>
+      <c r="N6">
+        <v>3.2</v>
+      </c>
+      <c r="O6">
+        <v>6.39</v>
+      </c>
+      <c r="P6">
+        <v>3.94</v>
+      </c>
+      <c r="Q6">
+        <v>2.4</v>
+      </c>
+      <c r="R6">
+        <v>0.96</v>
+      </c>
+      <c r="S6">
+        <v>1.26</v>
+      </c>
+      <c r="T6">
+        <v>99.51</v>
+      </c>
+      <c r="U6">
+        <v>0.39</v>
+      </c>
+      <c r="V6">
+        <v>25.1</v>
+      </c>
+      <c r="W6">
+        <v>3.35</v>
+      </c>
+      <c r="X6">
+        <v>18</v>
+      </c>
+      <c r="Y6">
+        <v>207</v>
+      </c>
+      <c r="Z6">
+        <v>7.7</v>
+      </c>
+      <c r="AA6">
+        <v>24.7</v>
+      </c>
+      <c r="AB6">
+        <v>15</v>
+      </c>
+      <c r="AC6">
+        <v>22.6</v>
+      </c>
+      <c r="AD6">
+        <v>138</v>
+      </c>
+      <c r="AE6">
+        <v>24.1</v>
+      </c>
+      <c r="AF6">
+        <v>1.44</v>
+      </c>
+      <c r="AG6">
+        <v>60.4</v>
+      </c>
+      <c r="AH6">
+        <v>902</v>
+      </c>
+      <c r="AI6">
+        <v>32.1</v>
+      </c>
+      <c r="AJ6">
+        <v>419</v>
+      </c>
+      <c r="AK6">
+        <v>21.4</v>
+      </c>
+      <c r="AL6">
+        <v>0.65</v>
+      </c>
+      <c r="AM6">
+        <v>1021</v>
+      </c>
+      <c r="AN6">
+        <v>72</v>
+      </c>
+      <c r="AO6">
+        <v>156</v>
+      </c>
+      <c r="AP6">
+        <v>20</v>
+      </c>
+      <c r="AQ6">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AR6">
+        <v>14.1</v>
+      </c>
+      <c r="AS6">
+        <v>3.32</v>
+      </c>
+      <c r="AT6">
+        <v>11.5</v>
+      </c>
+      <c r="AU6">
+        <v>1.43</v>
+      </c>
+      <c r="AV6">
+        <v>7.18</v>
+      </c>
+      <c r="AW6">
+        <v>1.3</v>
+      </c>
+      <c r="AX6">
+        <v>3.22</v>
+      </c>
+      <c r="AY6">
+        <v>0.44</v>
+      </c>
+      <c r="AZ6">
+        <v>2.63</v>
+      </c>
+      <c r="BA6">
+        <v>0.38</v>
+      </c>
+      <c r="BB6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BC6">
+        <v>1.22</v>
+      </c>
+      <c r="BD6">
+        <v>21.3</v>
+      </c>
+      <c r="BE6">
+        <v>9.39</v>
+      </c>
+      <c r="BF6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>53.64</v>
+      </c>
+      <c r="J7">
+        <v>1.41</v>
+      </c>
+      <c r="K7">
+        <v>15.83</v>
+      </c>
+      <c r="L7">
+        <v>7.85</v>
+      </c>
+      <c r="M7">
+        <v>0.13</v>
+      </c>
+      <c r="N7">
+        <v>3.01</v>
+      </c>
+      <c r="O7">
+        <v>7.59</v>
+      </c>
+      <c r="P7">
+        <v>3.56</v>
+      </c>
+      <c r="Q7">
+        <v>2.34</v>
+      </c>
+      <c r="R7">
+        <v>0.59</v>
+      </c>
+      <c r="S7">
+        <v>3.65</v>
+      </c>
+      <c r="T7">
+        <v>99.6</v>
+      </c>
+      <c r="U7">
+        <v>0.43</v>
+      </c>
+      <c r="V7">
+        <v>11.9</v>
+      </c>
+      <c r="W7">
+        <v>2.63</v>
+      </c>
+      <c r="X7">
+        <v>16.7</v>
+      </c>
+      <c r="Y7">
+        <v>158</v>
+      </c>
+      <c r="Z7">
+        <v>118</v>
+      </c>
+      <c r="AA7">
+        <v>23.7</v>
+      </c>
+      <c r="AB7">
+        <v>52.9</v>
+      </c>
+      <c r="AC7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AD7">
+        <v>101</v>
+      </c>
+      <c r="AE7">
+        <v>20.8</v>
+      </c>
+      <c r="AF7">
+        <v>1.25</v>
+      </c>
+      <c r="AG7">
+        <v>92.8</v>
+      </c>
+      <c r="AH7">
+        <v>941</v>
+      </c>
+      <c r="AI7">
+        <v>30.4</v>
+      </c>
+      <c r="AJ7">
+        <v>280</v>
+      </c>
+      <c r="AK7">
+        <v>13.6</v>
+      </c>
+      <c r="AL7">
+        <v>3.55</v>
+      </c>
+      <c r="AM7">
+        <v>830</v>
+      </c>
+      <c r="AN7">
+        <v>48.2</v>
+      </c>
+      <c r="AO7">
+        <v>102</v>
+      </c>
+      <c r="AP7">
+        <v>12.5</v>
+      </c>
+      <c r="AQ7">
+        <v>50.9</v>
+      </c>
+      <c r="AR7">
+        <v>9.1</v>
+      </c>
+      <c r="AS7">
+        <v>2.29</v>
+      </c>
+      <c r="AT7">
+        <v>7.53</v>
+      </c>
+      <c r="AU7">
+        <v>0.95</v>
+      </c>
+      <c r="AV7">
+        <v>4.79</v>
+      </c>
+      <c r="AW7">
+        <v>0.88</v>
+      </c>
+      <c r="AX7">
+        <v>2.21</v>
+      </c>
+      <c r="AY7">
+        <v>0.3</v>
+      </c>
+      <c r="AZ7">
+        <v>1.86</v>
+      </c>
+      <c r="BA7">
+        <v>0.26</v>
+      </c>
+      <c r="BB7">
+        <v>7.09</v>
+      </c>
+      <c r="BC7">
+        <v>0.85</v>
+      </c>
+      <c r="BD7">
+        <v>19.8</v>
+      </c>
+      <c r="BE7">
+        <v>7.16</v>
+      </c>
+      <c r="BF7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>54.6</v>
+      </c>
+      <c r="J8">
+        <v>1.79</v>
+      </c>
+      <c r="K8">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="L8">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="M8">
+        <v>0.08</v>
+      </c>
+      <c r="N8">
+        <v>1.64</v>
+      </c>
+      <c r="O8">
+        <v>6.43</v>
+      </c>
+      <c r="P8">
+        <v>4.13</v>
+      </c>
+      <c r="Q8">
+        <v>2.41</v>
+      </c>
+      <c r="R8">
+        <v>0.71</v>
+      </c>
+      <c r="S8">
+        <v>1.88</v>
+      </c>
+      <c r="T8">
+        <v>99.94</v>
+      </c>
+      <c r="U8">
+        <v>0.26</v>
+      </c>
+      <c r="V8">
+        <v>21.8</v>
+      </c>
+      <c r="W8">
+        <v>3.05</v>
+      </c>
+      <c r="X8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>160</v>
+      </c>
+      <c r="Z8">
+        <v>105</v>
+      </c>
+      <c r="AA8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>30.7</v>
+      </c>
+      <c r="AC8">
+        <v>28.2</v>
+      </c>
+      <c r="AD8">
+        <v>106</v>
+      </c>
+      <c r="AE8">
+        <v>22.2</v>
+      </c>
+      <c r="AF8">
+        <v>1.29</v>
+      </c>
+      <c r="AG8">
+        <v>59.3</v>
+      </c>
+      <c r="AH8">
+        <v>995</v>
+      </c>
+      <c r="AI8">
+        <v>25.2</v>
+      </c>
+      <c r="AJ8">
+        <v>337</v>
+      </c>
+      <c r="AK8">
+        <v>17.8</v>
+      </c>
+      <c r="AL8">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AM8">
+        <v>1080</v>
+      </c>
+      <c r="AN8">
+        <v>56.1</v>
+      </c>
+      <c r="AO8">
+        <v>119</v>
+      </c>
+      <c r="AP8">
+        <v>14.8</v>
+      </c>
+      <c r="AQ8">
+        <v>60.4</v>
+      </c>
+      <c r="AR8">
+        <v>10.8</v>
+      </c>
+      <c r="AS8">
+        <v>2.69</v>
+      </c>
+      <c r="AT8">
+        <v>9.09</v>
+      </c>
+      <c r="AU8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AV8">
+        <v>5.82</v>
+      </c>
+      <c r="AW8">
+        <v>1.06</v>
+      </c>
+      <c r="AX8">
+        <v>2.63</v>
+      </c>
+      <c r="AY8">
+        <v>0.35</v>
+      </c>
+      <c r="AZ8">
+        <v>2.1</v>
+      </c>
+      <c r="BA8">
+        <v>0.3</v>
+      </c>
+      <c r="BB8">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="BC8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BD8">
+        <v>18.7</v>
+      </c>
+      <c r="BE8">
+        <v>8.66</v>
+      </c>
+      <c r="BF8">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0.6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>48.66</v>
+      </c>
+      <c r="J9">
+        <v>1.41</v>
+      </c>
+      <c r="K9">
+        <v>15.31</v>
+      </c>
+      <c r="L9">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="M9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N9">
+        <v>9.59</v>
+      </c>
+      <c r="O9">
+        <v>8.18</v>
+      </c>
+      <c r="P9">
+        <v>3.14</v>
+      </c>
+      <c r="Q9">
+        <v>1.57</v>
+      </c>
+      <c r="R9">
+        <v>0.3</v>
+      </c>
+      <c r="S9">
+        <v>1.54</v>
+      </c>
+      <c r="T9">
+        <v>99.56</v>
+      </c>
+      <c r="U9">
+        <v>0.66</v>
+      </c>
+      <c r="V9">
+        <v>17</v>
+      </c>
+      <c r="W9">
+        <v>1.76</v>
+      </c>
+      <c r="X9">
+        <v>25.9</v>
+      </c>
+      <c r="Y9">
+        <v>211</v>
+      </c>
+      <c r="Z9">
+        <v>466</v>
+      </c>
+      <c r="AA9">
+        <v>43.4</v>
+      </c>
+      <c r="AB9">
+        <v>200</v>
+      </c>
+      <c r="AC9">
+        <v>53.4</v>
+      </c>
+      <c r="AD9">
+        <v>77</v>
+      </c>
+      <c r="AE9">
+        <v>17.3</v>
+      </c>
+      <c r="AF9">
+        <v>1.33</v>
+      </c>
+      <c r="AG9">
+        <v>29</v>
+      </c>
+      <c r="AH9">
+        <v>700</v>
+      </c>
+      <c r="AI9">
+        <v>21.7</v>
+      </c>
+      <c r="AJ9">
+        <v>150</v>
+      </c>
+      <c r="AK9">
+        <v>9.6</v>
+      </c>
+      <c r="AL9">
+        <v>3.29</v>
+      </c>
+      <c r="AM9">
+        <v>594</v>
+      </c>
+      <c r="AN9">
+        <v>21.5</v>
+      </c>
+      <c r="AO9">
+        <v>47.1</v>
+      </c>
+      <c r="AP9">
+        <v>5.9</v>
+      </c>
+      <c r="AQ9">
+        <v>25.5</v>
+      </c>
+      <c r="AR9">
+        <v>5.6</v>
+      </c>
+      <c r="AS9">
+        <v>1.68</v>
+      </c>
+      <c r="AT9">
+        <v>5.4</v>
+      </c>
+      <c r="AU9">
+        <v>0.8</v>
+      </c>
+      <c r="AV9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AW9">
+        <v>0.93</v>
+      </c>
+      <c r="AX9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AY9">
+        <v>0.36</v>
+      </c>
+      <c r="AZ9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BA9">
+        <v>0.32</v>
+      </c>
+      <c r="BB9">
+        <v>4.08</v>
+      </c>
+      <c r="BC9">
+        <v>0.73</v>
+      </c>
+      <c r="BD9">
+        <v>11.2</v>
+      </c>
+      <c r="BE9">
+        <v>3.8</v>
+      </c>
+      <c r="BF9">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8:AY15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1190,8 +6472,8 @@
       <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>33</v>
+      <c r="E2" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>55</v>
@@ -1369,11 +6651,11 @@
       <c r="D3" s="9">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>91</v>
@@ -1548,11 +6830,11 @@
       <c r="D4" s="9">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
+      <c r="E4" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>91</v>
@@ -1713,11 +6995,11 @@
       <c r="D5" s="9">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>33</v>
+      <c r="E5" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>91</v>
@@ -1878,11 +7160,11 @@
       <c r="D6" s="9">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>55</v>
+      <c r="E6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>91</v>
@@ -2031,11 +7313,11 @@
       <c r="D7" s="9">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>33</v>
+      <c r="E7" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>91</v>
@@ -2184,11 +7466,11 @@
       <c r="D8" s="9">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>91</v>
@@ -2305,11 +7587,11 @@
       <c r="D9" s="9">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
+      <c r="E9" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>91</v>
@@ -2426,11 +7708,11 @@
       <c r="D10" s="9">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>33</v>
+      <c r="E10" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>91</v>
@@ -2549,7 +7831,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>91</v>
@@ -2668,7 +7950,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>91</v>
@@ -2801,7 +8083,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>91</v>
@@ -2934,7 +8216,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>91</v>
@@ -3067,7 +8349,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>91</v>
@@ -3198,7 +8480,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>91</v>
@@ -3359,7 +8641,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>91</v>
@@ -3645,7 +8927,7 @@
         <v>33</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>91</v>
@@ -3788,7 +9070,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>92</v>
@@ -3943,7 +9225,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>92</v>
@@ -4097,8 +9379,8 @@
       <c r="E22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>62</v>
+      <c r="F22" s="9">
+        <v>8</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>92</v>
@@ -4253,7 +9535,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>92</v>
@@ -4410,7 +9692,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>92</v>
@@ -4569,7 +9851,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>92</v>
@@ -4746,7 +10028,7 @@
         <v>60</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>92</v>
@@ -4925,7 +10207,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>92</v>
@@ -5085,1611 +10367,6 @@
       </c>
       <c r="BG27" s="9">
         <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BF9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:58" ht="19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF1" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>0.6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>57.23</v>
-      </c>
-      <c r="J2">
-        <v>1.23</v>
-      </c>
-      <c r="K2">
-        <v>17.04</v>
-      </c>
-      <c r="L2">
-        <v>6.93</v>
-      </c>
-      <c r="M2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N2">
-        <v>3.4</v>
-      </c>
-      <c r="O2">
-        <v>5.98</v>
-      </c>
-      <c r="P2">
-        <v>4.13</v>
-      </c>
-      <c r="Q2">
-        <v>2.35</v>
-      </c>
-      <c r="R2">
-        <v>0.42</v>
-      </c>
-      <c r="S2">
-        <v>1.05</v>
-      </c>
-      <c r="T2">
-        <v>99.83</v>
-      </c>
-      <c r="U2">
-        <v>0.5</v>
-      </c>
-      <c r="V2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="W2">
-        <v>2.36</v>
-      </c>
-      <c r="X2">
-        <v>7.5</v>
-      </c>
-      <c r="Y2">
-        <v>148</v>
-      </c>
-      <c r="Z2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="AA2">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>45.5</v>
-      </c>
-      <c r="AC2">
-        <v>30</v>
-      </c>
-      <c r="AD2">
-        <v>94.7</v>
-      </c>
-      <c r="AE2">
-        <v>21.7</v>
-      </c>
-      <c r="AF2">
-        <v>1.07</v>
-      </c>
-      <c r="AG2">
-        <v>28.8</v>
-      </c>
-      <c r="AH2">
-        <v>1024</v>
-      </c>
-      <c r="AI2">
-        <v>12</v>
-      </c>
-      <c r="AJ2">
-        <v>222</v>
-      </c>
-      <c r="AK2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AL2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AM2">
-        <v>844</v>
-      </c>
-      <c r="AN2">
-        <v>34.1</v>
-      </c>
-      <c r="AO2">
-        <v>74</v>
-      </c>
-      <c r="AP2">
-        <v>9.1</v>
-      </c>
-      <c r="AQ2">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="AR2">
-        <v>6.5</v>
-      </c>
-      <c r="AS2">
-        <v>1.75</v>
-      </c>
-      <c r="AT2">
-        <v>5.14</v>
-      </c>
-      <c r="AU2">
-        <v>0.62</v>
-      </c>
-      <c r="AV2">
-        <v>3.05</v>
-      </c>
-      <c r="AW2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AX2">
-        <v>1.35</v>
-      </c>
-      <c r="AY2">
-        <v>0.18</v>
-      </c>
-      <c r="AZ2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BA2">
-        <v>0.16</v>
-      </c>
-      <c r="BB2">
-        <v>5.71</v>
-      </c>
-      <c r="BC2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BD2">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="BE2">
-        <v>4.71</v>
-      </c>
-      <c r="BF2">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0.6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>58.37</v>
-      </c>
-      <c r="J3">
-        <v>1.21</v>
-      </c>
-      <c r="K3">
-        <v>15.84</v>
-      </c>
-      <c r="L3">
-        <v>7.03</v>
-      </c>
-      <c r="M3">
-        <v>0.13</v>
-      </c>
-      <c r="N3">
-        <v>3.05</v>
-      </c>
-      <c r="O3">
-        <v>5.63</v>
-      </c>
-      <c r="P3">
-        <v>3.99</v>
-      </c>
-      <c r="Q3">
-        <v>3.17</v>
-      </c>
-      <c r="R3">
-        <v>0.44</v>
-      </c>
-      <c r="S3">
-        <v>0.94</v>
-      </c>
-      <c r="T3">
-        <v>99.8</v>
-      </c>
-      <c r="U3">
-        <v>0.46</v>
-      </c>
-      <c r="V3">
-        <v>28.5</v>
-      </c>
-      <c r="W3">
-        <v>3.49</v>
-      </c>
-      <c r="X3">
-        <v>14.3</v>
-      </c>
-      <c r="Y3">
-        <v>131</v>
-      </c>
-      <c r="Z3">
-        <v>75</v>
-      </c>
-      <c r="AA3">
-        <v>18.8</v>
-      </c>
-      <c r="AB3">
-        <v>34.6</v>
-      </c>
-      <c r="AC3">
-        <v>21.4</v>
-      </c>
-      <c r="AD3">
-        <v>99.7</v>
-      </c>
-      <c r="AE3">
-        <v>21.7</v>
-      </c>
-      <c r="AF3">
-        <v>1.39</v>
-      </c>
-      <c r="AG3">
-        <v>102</v>
-      </c>
-      <c r="AH3">
-        <v>715</v>
-      </c>
-      <c r="AI3">
-        <v>26</v>
-      </c>
-      <c r="AJ3">
-        <v>330</v>
-      </c>
-      <c r="AK3">
-        <v>15.9</v>
-      </c>
-      <c r="AL3">
-        <v>3.24</v>
-      </c>
-      <c r="AM3">
-        <v>890</v>
-      </c>
-      <c r="AN3">
-        <v>54.4</v>
-      </c>
-      <c r="AO3">
-        <v>114</v>
-      </c>
-      <c r="AP3">
-        <v>13.9</v>
-      </c>
-      <c r="AQ3">
-        <v>54.7</v>
-      </c>
-      <c r="AR3">
-        <v>9.9</v>
-      </c>
-      <c r="AS3">
-        <v>2.1</v>
-      </c>
-      <c r="AT3">
-        <v>8.15</v>
-      </c>
-      <c r="AU3">
-        <v>1.07</v>
-      </c>
-      <c r="AV3">
-        <v>5.66</v>
-      </c>
-      <c r="AW3">
-        <v>1.06</v>
-      </c>
-      <c r="AX3">
-        <v>2.76</v>
-      </c>
-      <c r="AY3">
-        <v>0.4</v>
-      </c>
-      <c r="AZ3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="BA3">
-        <v>0.37</v>
-      </c>
-      <c r="BB3">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="BC3">
-        <v>1.08</v>
-      </c>
-      <c r="BD3">
-        <v>22.3</v>
-      </c>
-      <c r="BE3">
-        <v>12</v>
-      </c>
-      <c r="BF3">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
-      <c r="A4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>0.6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>50.29</v>
-      </c>
-      <c r="J4">
-        <v>1.98</v>
-      </c>
-      <c r="K4">
-        <v>15.76</v>
-      </c>
-      <c r="L4">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="M4">
-        <v>0.13</v>
-      </c>
-      <c r="N4">
-        <v>6.34</v>
-      </c>
-      <c r="O4">
-        <v>7.34</v>
-      </c>
-      <c r="P4">
-        <v>3.61</v>
-      </c>
-      <c r="Q4">
-        <v>1.64</v>
-      </c>
-      <c r="R4">
-        <v>0.6</v>
-      </c>
-      <c r="S4">
-        <v>1.67</v>
-      </c>
-      <c r="T4">
-        <v>99.57</v>
-      </c>
-      <c r="U4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V4">
-        <v>23.3</v>
-      </c>
-      <c r="W4">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="X4">
-        <v>19</v>
-      </c>
-      <c r="Y4">
-        <v>184</v>
-      </c>
-      <c r="Z4">
-        <v>179</v>
-      </c>
-      <c r="AA4">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="AB4">
-        <v>97.9</v>
-      </c>
-      <c r="AC4">
-        <v>29.2</v>
-      </c>
-      <c r="AD4">
-        <v>105</v>
-      </c>
-      <c r="AE4">
-        <v>20.2</v>
-      </c>
-      <c r="AF4">
-        <v>1.27</v>
-      </c>
-      <c r="AG4">
-        <v>31.8</v>
-      </c>
-      <c r="AH4">
-        <v>870</v>
-      </c>
-      <c r="AI4">
-        <v>24.6</v>
-      </c>
-      <c r="AJ4">
-        <v>264</v>
-      </c>
-      <c r="AK4">
-        <v>15.2</v>
-      </c>
-      <c r="AL4">
-        <v>13.3</v>
-      </c>
-      <c r="AM4">
-        <v>589</v>
-      </c>
-      <c r="AN4">
-        <v>36.6</v>
-      </c>
-      <c r="AO4">
-        <v>82.5</v>
-      </c>
-      <c r="AP4">
-        <v>10.7</v>
-      </c>
-      <c r="AQ4">
-        <v>45.9</v>
-      </c>
-      <c r="AR4">
-        <v>9.1</v>
-      </c>
-      <c r="AS4">
-        <v>2.44</v>
-      </c>
-      <c r="AT4">
-        <v>7.94</v>
-      </c>
-      <c r="AU4">
-        <v>1.05</v>
-      </c>
-      <c r="AV4">
-        <v>5.55</v>
-      </c>
-      <c r="AW4">
-        <v>1.03</v>
-      </c>
-      <c r="AX4">
-        <v>2.54</v>
-      </c>
-      <c r="AY4">
-        <v>0.35</v>
-      </c>
-      <c r="AZ4">
-        <v>2.09</v>
-      </c>
-      <c r="BA4">
-        <v>0.3</v>
-      </c>
-      <c r="BB4">
-        <v>6.6</v>
-      </c>
-      <c r="BC4">
-        <v>1.03</v>
-      </c>
-      <c r="BD4">
-        <v>11.6</v>
-      </c>
-      <c r="BE4">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="BF4">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58">
-      <c r="A5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>0.6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>52.25</v>
-      </c>
-      <c r="J5">
-        <v>2.31</v>
-      </c>
-      <c r="K5">
-        <v>15.43</v>
-      </c>
-      <c r="L5">
-        <v>10.31</v>
-      </c>
-      <c r="M5">
-        <v>0.13</v>
-      </c>
-      <c r="N5">
-        <v>3.78</v>
-      </c>
-      <c r="O5">
-        <v>7.1</v>
-      </c>
-      <c r="P5">
-        <v>3.59</v>
-      </c>
-      <c r="Q5">
-        <v>1.7</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1.92</v>
-      </c>
-      <c r="T5">
-        <v>99.52</v>
-      </c>
-      <c r="U5">
-        <v>0.42</v>
-      </c>
-      <c r="V5">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="W5">
-        <v>3.15</v>
-      </c>
-      <c r="X5">
-        <v>18</v>
-      </c>
-      <c r="Y5">
-        <v>164</v>
-      </c>
-      <c r="Z5">
-        <v>91.5</v>
-      </c>
-      <c r="AA5">
-        <v>28.7</v>
-      </c>
-      <c r="AB5">
-        <v>29.5</v>
-      </c>
-      <c r="AC5">
-        <v>20.2</v>
-      </c>
-      <c r="AD5">
-        <v>149</v>
-      </c>
-      <c r="AE5">
-        <v>23</v>
-      </c>
-      <c r="AF5">
-        <v>1.57</v>
-      </c>
-      <c r="AG5">
-        <v>32.9</v>
-      </c>
-      <c r="AH5">
-        <v>1025</v>
-      </c>
-      <c r="AI5">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="AJ5">
-        <v>415</v>
-      </c>
-      <c r="AK5">
-        <v>23.8</v>
-      </c>
-      <c r="AL5">
-        <v>1.9</v>
-      </c>
-      <c r="AM5">
-        <v>1012</v>
-      </c>
-      <c r="AN5">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="AO5">
-        <v>152</v>
-      </c>
-      <c r="AP5">
-        <v>20</v>
-      </c>
-      <c r="AQ5">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="AR5">
-        <v>14.5</v>
-      </c>
-      <c r="AS5">
-        <v>3.2</v>
-      </c>
-      <c r="AT5">
-        <v>11.6</v>
-      </c>
-      <c r="AU5">
-        <v>1.45</v>
-      </c>
-      <c r="AV5">
-        <v>7.21</v>
-      </c>
-      <c r="AW5">
-        <v>1.28</v>
-      </c>
-      <c r="AX5">
-        <v>3.13</v>
-      </c>
-      <c r="AY5">
-        <v>0.42</v>
-      </c>
-      <c r="AZ5">
-        <v>2.56</v>
-      </c>
-      <c r="BA5">
-        <v>0.36</v>
-      </c>
-      <c r="BB5">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="BC5">
-        <v>1.33</v>
-      </c>
-      <c r="BD5">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="BE5">
-        <v>7.34</v>
-      </c>
-      <c r="BF5">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
-      <c r="A6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>0.6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>53.01</v>
-      </c>
-      <c r="J6">
-        <v>2.27</v>
-      </c>
-      <c r="K6">
-        <v>16.13</v>
-      </c>
-      <c r="L6">
-        <v>9.86</v>
-      </c>
-      <c r="M6">
-        <v>0.09</v>
-      </c>
-      <c r="N6">
-        <v>3.2</v>
-      </c>
-      <c r="O6">
-        <v>6.39</v>
-      </c>
-      <c r="P6">
-        <v>3.94</v>
-      </c>
-      <c r="Q6">
-        <v>2.4</v>
-      </c>
-      <c r="R6">
-        <v>0.96</v>
-      </c>
-      <c r="S6">
-        <v>1.26</v>
-      </c>
-      <c r="T6">
-        <v>99.51</v>
-      </c>
-      <c r="U6">
-        <v>0.39</v>
-      </c>
-      <c r="V6">
-        <v>25.1</v>
-      </c>
-      <c r="W6">
-        <v>3.35</v>
-      </c>
-      <c r="X6">
-        <v>18</v>
-      </c>
-      <c r="Y6">
-        <v>207</v>
-      </c>
-      <c r="Z6">
-        <v>7.7</v>
-      </c>
-      <c r="AA6">
-        <v>24.7</v>
-      </c>
-      <c r="AB6">
-        <v>15</v>
-      </c>
-      <c r="AC6">
-        <v>22.6</v>
-      </c>
-      <c r="AD6">
-        <v>138</v>
-      </c>
-      <c r="AE6">
-        <v>24.1</v>
-      </c>
-      <c r="AF6">
-        <v>1.44</v>
-      </c>
-      <c r="AG6">
-        <v>60.4</v>
-      </c>
-      <c r="AH6">
-        <v>902</v>
-      </c>
-      <c r="AI6">
-        <v>32.1</v>
-      </c>
-      <c r="AJ6">
-        <v>419</v>
-      </c>
-      <c r="AK6">
-        <v>21.4</v>
-      </c>
-      <c r="AL6">
-        <v>0.65</v>
-      </c>
-      <c r="AM6">
-        <v>1021</v>
-      </c>
-      <c r="AN6">
-        <v>72</v>
-      </c>
-      <c r="AO6">
-        <v>156</v>
-      </c>
-      <c r="AP6">
-        <v>20</v>
-      </c>
-      <c r="AQ6">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="AR6">
-        <v>14.1</v>
-      </c>
-      <c r="AS6">
-        <v>3.32</v>
-      </c>
-      <c r="AT6">
-        <v>11.5</v>
-      </c>
-      <c r="AU6">
-        <v>1.43</v>
-      </c>
-      <c r="AV6">
-        <v>7.18</v>
-      </c>
-      <c r="AW6">
-        <v>1.3</v>
-      </c>
-      <c r="AX6">
-        <v>3.22</v>
-      </c>
-      <c r="AY6">
-        <v>0.44</v>
-      </c>
-      <c r="AZ6">
-        <v>2.63</v>
-      </c>
-      <c r="BA6">
-        <v>0.38</v>
-      </c>
-      <c r="BB6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="BC6">
-        <v>1.22</v>
-      </c>
-      <c r="BD6">
-        <v>21.3</v>
-      </c>
-      <c r="BE6">
-        <v>9.39</v>
-      </c>
-      <c r="BF6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>0.6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>53.64</v>
-      </c>
-      <c r="J7">
-        <v>1.41</v>
-      </c>
-      <c r="K7">
-        <v>15.83</v>
-      </c>
-      <c r="L7">
-        <v>7.85</v>
-      </c>
-      <c r="M7">
-        <v>0.13</v>
-      </c>
-      <c r="N7">
-        <v>3.01</v>
-      </c>
-      <c r="O7">
-        <v>7.59</v>
-      </c>
-      <c r="P7">
-        <v>3.56</v>
-      </c>
-      <c r="Q7">
-        <v>2.34</v>
-      </c>
-      <c r="R7">
-        <v>0.59</v>
-      </c>
-      <c r="S7">
-        <v>3.65</v>
-      </c>
-      <c r="T7">
-        <v>99.6</v>
-      </c>
-      <c r="U7">
-        <v>0.43</v>
-      </c>
-      <c r="V7">
-        <v>11.9</v>
-      </c>
-      <c r="W7">
-        <v>2.63</v>
-      </c>
-      <c r="X7">
-        <v>16.7</v>
-      </c>
-      <c r="Y7">
-        <v>158</v>
-      </c>
-      <c r="Z7">
-        <v>118</v>
-      </c>
-      <c r="AA7">
-        <v>23.7</v>
-      </c>
-      <c r="AB7">
-        <v>52.9</v>
-      </c>
-      <c r="AC7">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="AD7">
-        <v>101</v>
-      </c>
-      <c r="AE7">
-        <v>20.8</v>
-      </c>
-      <c r="AF7">
-        <v>1.25</v>
-      </c>
-      <c r="AG7">
-        <v>92.8</v>
-      </c>
-      <c r="AH7">
-        <v>941</v>
-      </c>
-      <c r="AI7">
-        <v>30.4</v>
-      </c>
-      <c r="AJ7">
-        <v>280</v>
-      </c>
-      <c r="AK7">
-        <v>13.6</v>
-      </c>
-      <c r="AL7">
-        <v>3.55</v>
-      </c>
-      <c r="AM7">
-        <v>830</v>
-      </c>
-      <c r="AN7">
-        <v>48.2</v>
-      </c>
-      <c r="AO7">
-        <v>102</v>
-      </c>
-      <c r="AP7">
-        <v>12.5</v>
-      </c>
-      <c r="AQ7">
-        <v>50.9</v>
-      </c>
-      <c r="AR7">
-        <v>9.1</v>
-      </c>
-      <c r="AS7">
-        <v>2.29</v>
-      </c>
-      <c r="AT7">
-        <v>7.53</v>
-      </c>
-      <c r="AU7">
-        <v>0.95</v>
-      </c>
-      <c r="AV7">
-        <v>4.79</v>
-      </c>
-      <c r="AW7">
-        <v>0.88</v>
-      </c>
-      <c r="AX7">
-        <v>2.21</v>
-      </c>
-      <c r="AY7">
-        <v>0.3</v>
-      </c>
-      <c r="AZ7">
-        <v>1.86</v>
-      </c>
-      <c r="BA7">
-        <v>0.26</v>
-      </c>
-      <c r="BB7">
-        <v>7.09</v>
-      </c>
-      <c r="BC7">
-        <v>0.85</v>
-      </c>
-      <c r="BD7">
-        <v>19.8</v>
-      </c>
-      <c r="BE7">
-        <v>7.16</v>
-      </c>
-      <c r="BF7">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>0.6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>54.6</v>
-      </c>
-      <c r="J8">
-        <v>1.79</v>
-      </c>
-      <c r="K8">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="L8">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="M8">
-        <v>0.08</v>
-      </c>
-      <c r="N8">
-        <v>1.64</v>
-      </c>
-      <c r="O8">
-        <v>6.43</v>
-      </c>
-      <c r="P8">
-        <v>4.13</v>
-      </c>
-      <c r="Q8">
-        <v>2.41</v>
-      </c>
-      <c r="R8">
-        <v>0.71</v>
-      </c>
-      <c r="S8">
-        <v>1.88</v>
-      </c>
-      <c r="T8">
-        <v>99.94</v>
-      </c>
-      <c r="U8">
-        <v>0.26</v>
-      </c>
-      <c r="V8">
-        <v>21.8</v>
-      </c>
-      <c r="W8">
-        <v>3.05</v>
-      </c>
-      <c r="X8">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="Y8">
-        <v>160</v>
-      </c>
-      <c r="Z8">
-        <v>105</v>
-      </c>
-      <c r="AA8">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AB8">
-        <v>30.7</v>
-      </c>
-      <c r="AC8">
-        <v>28.2</v>
-      </c>
-      <c r="AD8">
-        <v>106</v>
-      </c>
-      <c r="AE8">
-        <v>22.2</v>
-      </c>
-      <c r="AF8">
-        <v>1.29</v>
-      </c>
-      <c r="AG8">
-        <v>59.3</v>
-      </c>
-      <c r="AH8">
-        <v>995</v>
-      </c>
-      <c r="AI8">
-        <v>25.2</v>
-      </c>
-      <c r="AJ8">
-        <v>337</v>
-      </c>
-      <c r="AK8">
-        <v>17.8</v>
-      </c>
-      <c r="AL8">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="AM8">
-        <v>1080</v>
-      </c>
-      <c r="AN8">
-        <v>56.1</v>
-      </c>
-      <c r="AO8">
-        <v>119</v>
-      </c>
-      <c r="AP8">
-        <v>14.8</v>
-      </c>
-      <c r="AQ8">
-        <v>60.4</v>
-      </c>
-      <c r="AR8">
-        <v>10.8</v>
-      </c>
-      <c r="AS8">
-        <v>2.69</v>
-      </c>
-      <c r="AT8">
-        <v>9.09</v>
-      </c>
-      <c r="AU8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AV8">
-        <v>5.82</v>
-      </c>
-      <c r="AW8">
-        <v>1.06</v>
-      </c>
-      <c r="AX8">
-        <v>2.63</v>
-      </c>
-      <c r="AY8">
-        <v>0.35</v>
-      </c>
-      <c r="AZ8">
-        <v>2.1</v>
-      </c>
-      <c r="BA8">
-        <v>0.3</v>
-      </c>
-      <c r="BB8">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="BC8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BD8">
-        <v>18.7</v>
-      </c>
-      <c r="BE8">
-        <v>8.66</v>
-      </c>
-      <c r="BF8">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>0.6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>48.66</v>
-      </c>
-      <c r="J9">
-        <v>1.41</v>
-      </c>
-      <c r="K9">
-        <v>15.31</v>
-      </c>
-      <c r="L9">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="M9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N9">
-        <v>9.59</v>
-      </c>
-      <c r="O9">
-        <v>8.18</v>
-      </c>
-      <c r="P9">
-        <v>3.14</v>
-      </c>
-      <c r="Q9">
-        <v>1.57</v>
-      </c>
-      <c r="R9">
-        <v>0.3</v>
-      </c>
-      <c r="S9">
-        <v>1.54</v>
-      </c>
-      <c r="T9">
-        <v>99.56</v>
-      </c>
-      <c r="U9">
-        <v>0.66</v>
-      </c>
-      <c r="V9">
-        <v>17</v>
-      </c>
-      <c r="W9">
-        <v>1.76</v>
-      </c>
-      <c r="X9">
-        <v>25.9</v>
-      </c>
-      <c r="Y9">
-        <v>211</v>
-      </c>
-      <c r="Z9">
-        <v>466</v>
-      </c>
-      <c r="AA9">
-        <v>43.4</v>
-      </c>
-      <c r="AB9">
-        <v>200</v>
-      </c>
-      <c r="AC9">
-        <v>53.4</v>
-      </c>
-      <c r="AD9">
-        <v>77</v>
-      </c>
-      <c r="AE9">
-        <v>17.3</v>
-      </c>
-      <c r="AF9">
-        <v>1.33</v>
-      </c>
-      <c r="AG9">
-        <v>29</v>
-      </c>
-      <c r="AH9">
-        <v>700</v>
-      </c>
-      <c r="AI9">
-        <v>21.7</v>
-      </c>
-      <c r="AJ9">
-        <v>150</v>
-      </c>
-      <c r="AK9">
-        <v>9.6</v>
-      </c>
-      <c r="AL9">
-        <v>3.29</v>
-      </c>
-      <c r="AM9">
-        <v>594</v>
-      </c>
-      <c r="AN9">
-        <v>21.5</v>
-      </c>
-      <c r="AO9">
-        <v>47.1</v>
-      </c>
-      <c r="AP9">
-        <v>5.9</v>
-      </c>
-      <c r="AQ9">
-        <v>25.5</v>
-      </c>
-      <c r="AR9">
-        <v>5.6</v>
-      </c>
-      <c r="AS9">
-        <v>1.68</v>
-      </c>
-      <c r="AT9">
-        <v>5.4</v>
-      </c>
-      <c r="AU9">
-        <v>0.8</v>
-      </c>
-      <c r="AV9">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AW9">
-        <v>0.93</v>
-      </c>
-      <c r="AX9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="AY9">
-        <v>0.36</v>
-      </c>
-      <c r="AZ9">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="BA9">
-        <v>0.32</v>
-      </c>
-      <c r="BB9">
-        <v>4.08</v>
-      </c>
-      <c r="BC9">
-        <v>0.73</v>
-      </c>
-      <c r="BD9">
-        <v>11.2</v>
-      </c>
-      <c r="BE9">
-        <v>3.8</v>
-      </c>
-      <c r="BF9">
-        <v>1.1200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DataFileSamples/TAS REE Trace Pearce Harker CIPW/Testing Data With Blanks.xlsx
+++ b/DataFileSamples/TAS REE Trace Pearce Harker CIPW/Testing Data With Blanks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/TAS REE Trace Pearce Harker CIPW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{28CB3CA3-3BDA-1A4C-AF82-C01AED7A2215}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{934F1785-3B51-0B47-A407-EB47C484F7CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -1547,7 +1547,7 @@
   <dimension ref="A1:BE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/DataFileSamples/TAS REE Trace Pearce Harker CIPW/Testing Data With Blanks.xlsx
+++ b/DataFileSamples/TAS REE Trace Pearce Harker CIPW/Testing Data With Blanks.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/TAS REE Trace Pearce Harker CIPW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{934F1785-3B51-0B47-A407-EB47C484F7CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{108FB7A2-1003-B744-8175-F964C9829BE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="2420" windowWidth="38400" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表4" sheetId="5" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="4" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="3" r:id="rId4"/>
+    <sheet name="Data" sheetId="7" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表5" sheetId="6" r:id="rId3"/>
+    <sheet name="工作表4" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" iterateCount="200" iterateDelta="9.9999999999999995E-7" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="125">
   <si>
     <t>Author</t>
   </si>
@@ -776,7 +778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -881,6 +883,12 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -995,7 +1003,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,6 +1064,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1096,6 +1107,72 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 112" descr="igures/linestyle-,.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A90B97-83AF-5A4F-ACDE-5FDD5D9D1AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3835400" y="2108200"/>
+          <a:ext cx="88900" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1146,10 +1223,193 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 112" descr="igures/linestyle-,.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002A0C30-A86F-C149-B5AD-AC22036AB095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3835400" y="2108200"/>
+          <a:ext cx="88900" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 112" descr="igures/linestyle-,.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D667F99-804C-CB47-B0BB-379A4783B421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3835400" y="1447800"/>
+          <a:ext cx="88900" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 112" descr="igures/linestyle-,.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54FF845-4E26-B94B-AD83-E9972A58F0FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="330200" y="15176500"/>
+          <a:ext cx="88900" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1215,7 +1475,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1543,11 +1803,1543 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909096EF-0AB0-9D4F-8D2E-EA5CA265CA11}">
+  <dimension ref="A1:BE9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:57" ht="30">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" ht="26">
+      <c r="A2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="16">
+        <v>20</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
+        <v>57.23</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="J2" s="16">
+        <v>17.04</v>
+      </c>
+      <c r="K2" s="16">
+        <v>6.93</v>
+      </c>
+      <c r="L2" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M2" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="N2" s="16">
+        <v>5.98</v>
+      </c>
+      <c r="O2" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="P2" s="16">
+        <v>2.35</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="R2" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="S2" s="16">
+        <v>99.83</v>
+      </c>
+      <c r="T2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="U2" s="16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="V2" s="16">
+        <v>2.36</v>
+      </c>
+      <c r="W2" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="X2" s="16">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>45.5</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>94.7</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>28.8</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>1024</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>222</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>844</v>
+      </c>
+      <c r="AM2" s="16">
+        <v>34.1</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="AP2" s="16">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AQ2" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="AR2" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="AS2" s="16">
+        <v>5.14</v>
+      </c>
+      <c r="AT2" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="AU2" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="AV2" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AW2" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="AX2" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="AY2" s="16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AZ2" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="BA2" s="16">
+        <v>5.71</v>
+      </c>
+      <c r="BB2" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BC2" s="16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="BD2" s="16">
+        <v>4.71</v>
+      </c>
+      <c r="BE2" s="16">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" ht="26">
+      <c r="A3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="16">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>58.37</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1.21</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16">
+        <v>7.03</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M3" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="N3" s="16">
+        <v>5.63</v>
+      </c>
+      <c r="O3" s="16">
+        <v>3.99</v>
+      </c>
+      <c r="P3" s="16">
+        <v>3.17</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="S3" s="16">
+        <v>99.8</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="U3" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="V3" s="16">
+        <v>3.49</v>
+      </c>
+      <c r="W3" s="16">
+        <v>14.3</v>
+      </c>
+      <c r="X3" s="16">
+        <v>131</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>18.8</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>34.6</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>21.4</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>99.7</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>1.39</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>102</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>715</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>330</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>15.9</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>3.24</v>
+      </c>
+      <c r="AL3" s="16">
+        <v>890</v>
+      </c>
+      <c r="AM3" s="16">
+        <v>54.4</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>114</v>
+      </c>
+      <c r="AO3" s="16">
+        <v>13.9</v>
+      </c>
+      <c r="AP3" s="16">
+        <v>54.7</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>9.9</v>
+      </c>
+      <c r="AR3" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="AS3" s="16">
+        <v>8.15</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="AU3" s="16">
+        <v>5.66</v>
+      </c>
+      <c r="AV3" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="AW3" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AZ3" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="BA3" s="16">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="BB3" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="BC3" s="16">
+        <v>22.3</v>
+      </c>
+      <c r="BD3" s="16">
+        <v>12</v>
+      </c>
+      <c r="BE3" s="16">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="26">
+      <c r="A4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="16">
+        <v>20</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
+        <v>50.29</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1.98</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M4" s="16">
+        <v>6.34</v>
+      </c>
+      <c r="N4" s="16">
+        <v>7.34</v>
+      </c>
+      <c r="O4" s="16">
+        <v>3.61</v>
+      </c>
+      <c r="P4" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="R4" s="16">
+        <v>1.67</v>
+      </c>
+      <c r="S4" s="16">
+        <v>99.57</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U4" s="16">
+        <v>23.3</v>
+      </c>
+      <c r="V4" s="16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="W4" s="16">
+        <v>19</v>
+      </c>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16">
+        <v>20.2</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>31.8</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>870</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>24.6</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>264</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>15.2</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>13.3</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>589</v>
+      </c>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16">
+        <v>82.5</v>
+      </c>
+      <c r="AO4" s="16">
+        <v>10.7</v>
+      </c>
+      <c r="AP4" s="16">
+        <v>45.9</v>
+      </c>
+      <c r="AQ4" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="AR4" s="16">
+        <v>2.44</v>
+      </c>
+      <c r="AS4" s="16">
+        <v>7.94</v>
+      </c>
+      <c r="AT4" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="AW4" s="16">
+        <v>2.54</v>
+      </c>
+      <c r="AX4" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="AY4" s="16">
+        <v>2.09</v>
+      </c>
+      <c r="AZ4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="BA4" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="BB4" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="BC4" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="BD4" s="16">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="BE4" s="16">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="26">
+      <c r="A5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="16">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>52.25</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2.31</v>
+      </c>
+      <c r="J5" s="16">
+        <v>15.43</v>
+      </c>
+      <c r="K5" s="16">
+        <v>10.31</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M5" s="16">
+        <v>3.78</v>
+      </c>
+      <c r="N5" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="O5" s="16">
+        <v>3.59</v>
+      </c>
+      <c r="P5" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1</v>
+      </c>
+      <c r="R5" s="16">
+        <v>1.92</v>
+      </c>
+      <c r="S5" s="16">
+        <v>99.52</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="U5" s="16">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="V5" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="W5" s="16">
+        <v>18</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16">
+        <v>23</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>32.9</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>1025</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>415</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>23.8</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>1012</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>152</v>
+      </c>
+      <c r="AO5" s="16">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="16">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AQ5" s="16">
+        <v>14.5</v>
+      </c>
+      <c r="AR5" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="AS5" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>1.45</v>
+      </c>
+      <c r="AU5" s="16">
+        <v>7.21</v>
+      </c>
+      <c r="AV5" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="AW5" s="16">
+        <v>3.13</v>
+      </c>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16">
+        <v>2.56</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="BC5" s="16">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BD5" s="16">
+        <v>7.34</v>
+      </c>
+      <c r="BE5" s="16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="26">
+      <c r="A6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="16">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>53.01</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2.27</v>
+      </c>
+      <c r="J6" s="16">
+        <v>16.13</v>
+      </c>
+      <c r="K6" s="16">
+        <v>9.86</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="M6" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="N6" s="16">
+        <v>6.39</v>
+      </c>
+      <c r="O6" s="16">
+        <v>3.94</v>
+      </c>
+      <c r="P6" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="R6" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="S6" s="16">
+        <v>99.51</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0.39</v>
+      </c>
+      <c r="U6" s="16">
+        <v>25.1</v>
+      </c>
+      <c r="V6" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="W6" s="16">
+        <v>18</v>
+      </c>
+      <c r="X6" s="16">
+        <v>207</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>24.7</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>22.6</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>138</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>24.1</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>1.44</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>60.4</v>
+      </c>
+      <c r="AG6" s="16">
+        <v>902</v>
+      </c>
+      <c r="AH6" s="16">
+        <v>32.1</v>
+      </c>
+      <c r="AI6" s="16">
+        <v>419</v>
+      </c>
+      <c r="AJ6" s="16">
+        <v>21.4</v>
+      </c>
+      <c r="AK6" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="AL6" s="16">
+        <v>1021</v>
+      </c>
+      <c r="AM6" s="16">
+        <v>72</v>
+      </c>
+      <c r="AN6" s="16">
+        <v>156</v>
+      </c>
+      <c r="AO6" s="16">
+        <v>20</v>
+      </c>
+      <c r="AP6" s="16">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AQ6" s="16">
+        <v>14.1</v>
+      </c>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="AT6" s="16">
+        <v>1.43</v>
+      </c>
+      <c r="AU6" s="16">
+        <v>7.18</v>
+      </c>
+      <c r="AV6" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="AW6" s="16">
+        <v>3.22</v>
+      </c>
+      <c r="AX6" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="AY6" s="16">
+        <v>2.63</v>
+      </c>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BB6" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="BC6" s="16">
+        <v>21.3</v>
+      </c>
+      <c r="BD6" s="16">
+        <v>9.39</v>
+      </c>
+      <c r="BE6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="26">
+      <c r="A7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="16">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>53.64</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="J7" s="16">
+        <v>15.83</v>
+      </c>
+      <c r="K7" s="16">
+        <v>7.85</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3.01</v>
+      </c>
+      <c r="N7" s="16">
+        <v>7.59</v>
+      </c>
+      <c r="O7" s="16">
+        <v>3.56</v>
+      </c>
+      <c r="P7" s="16">
+        <v>2.34</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="R7" s="16">
+        <v>3.65</v>
+      </c>
+      <c r="S7" s="16">
+        <v>99.6</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="U7" s="16">
+        <v>11.9</v>
+      </c>
+      <c r="V7" s="16">
+        <v>2.63</v>
+      </c>
+      <c r="W7" s="16">
+        <v>16.7</v>
+      </c>
+      <c r="X7" s="16">
+        <v>158</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>23.7</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>101</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>20.8</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>92.8</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>941</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>30.4</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>280</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>13.6</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>830</v>
+      </c>
+      <c r="AM7" s="16">
+        <v>48.2</v>
+      </c>
+      <c r="AN7" s="16">
+        <v>102</v>
+      </c>
+      <c r="AO7" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="AP7" s="16">
+        <v>50.9</v>
+      </c>
+      <c r="AQ7" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="AR7" s="16">
+        <v>2.29</v>
+      </c>
+      <c r="AS7" s="16">
+        <v>7.53</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU7" s="16">
+        <v>4.79</v>
+      </c>
+      <c r="AV7" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="AW7" s="16">
+        <v>2.21</v>
+      </c>
+      <c r="AX7" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AY7" s="16">
+        <v>1.86</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="BA7" s="16">
+        <v>7.09</v>
+      </c>
+      <c r="BB7" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="BC7" s="16">
+        <v>19.8</v>
+      </c>
+      <c r="BD7" s="16">
+        <v>7.16</v>
+      </c>
+      <c r="BE7" s="16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="26">
+      <c r="A8" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="16">
+        <v>200</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>54.6</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1.79</v>
+      </c>
+      <c r="J8" s="16">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="K8" s="16">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="N8" s="16">
+        <v>6.43</v>
+      </c>
+      <c r="O8" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="P8" s="16">
+        <v>2.41</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="R8" s="16">
+        <v>1.88</v>
+      </c>
+      <c r="S8" s="16">
+        <v>99.94</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="U8" s="16">
+        <v>21.8</v>
+      </c>
+      <c r="V8" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="W8" s="16">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="X8" s="16">
+        <v>160</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>105</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>30.7</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>28.2</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>106</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>22.2</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>59.3</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>995</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>25.2</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>337</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>17.8</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>1080</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>56.1</v>
+      </c>
+      <c r="AN8" s="16">
+        <v>119</v>
+      </c>
+      <c r="AO8" s="16">
+        <v>14.8</v>
+      </c>
+      <c r="AP8" s="16">
+        <v>60.4</v>
+      </c>
+      <c r="AQ8" s="16">
+        <v>10.8</v>
+      </c>
+      <c r="AR8" s="16">
+        <v>2.69</v>
+      </c>
+      <c r="AS8" s="16">
+        <v>9.09</v>
+      </c>
+      <c r="AT8" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AU8" s="16">
+        <v>5.82</v>
+      </c>
+      <c r="AV8" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="AW8" s="16">
+        <v>2.63</v>
+      </c>
+      <c r="AX8" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="AY8" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="AZ8" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="BA8" s="16">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="BB8" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BC8" s="16">
+        <v>18.7</v>
+      </c>
+      <c r="BD8" s="16">
+        <v>8.66</v>
+      </c>
+      <c r="BE8" s="16">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="26">
+      <c r="A9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="16">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
+        <v>48.66</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="J9" s="16">
+        <v>15.31</v>
+      </c>
+      <c r="K9" s="16">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M9" s="16">
+        <v>9.59</v>
+      </c>
+      <c r="N9" s="16">
+        <v>8.18</v>
+      </c>
+      <c r="O9" s="16">
+        <v>3.14</v>
+      </c>
+      <c r="P9" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="S9" s="16">
+        <v>99.56</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="U9" s="16">
+        <v>17</v>
+      </c>
+      <c r="V9" s="16">
+        <v>1.76</v>
+      </c>
+      <c r="W9" s="16">
+        <v>25.9</v>
+      </c>
+      <c r="X9" s="16">
+        <v>211</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>466</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>43.4</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>200</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>53.4</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>77</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>17.3</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>29</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>700</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>21.7</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>150</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>9.6</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>3.29</v>
+      </c>
+      <c r="AL9" s="16">
+        <v>594</v>
+      </c>
+      <c r="AM9" s="16">
+        <v>21.5</v>
+      </c>
+      <c r="AN9" s="16">
+        <v>47.1</v>
+      </c>
+      <c r="AO9" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="AP9" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="AQ9" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="AR9" s="16">
+        <v>1.68</v>
+      </c>
+      <c r="AS9" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="AT9" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="AU9" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AV9" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="AW9" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AX9" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="AY9" s="16">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AZ9" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="BA9" s="16">
+        <v>4.08</v>
+      </c>
+      <c r="BB9" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="BC9" s="16">
+        <v>11.2</v>
+      </c>
+      <c r="BD9" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="BE9" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1732,8 +3524,8 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="26">
-      <c r="A2" s="15" t="s">
-        <v>55</v>
+      <c r="A2" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="16">
         <v>20</v>
@@ -1744,7 +3536,7 @@
       <c r="D2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="26" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="16">
@@ -1905,8 +3697,8 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="26">
-      <c r="A3" s="15" t="s">
-        <v>34</v>
+      <c r="A3" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="B3" s="16">
         <v>20</v>
@@ -1917,7 +3709,7 @@
       <c r="D3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="26" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="16">
@@ -2074,8 +3866,8 @@
       </c>
     </row>
     <row r="4" spans="1:57" ht="26">
-      <c r="A4" s="15" t="s">
-        <v>101</v>
+      <c r="A4" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="B4" s="16">
         <v>20</v>
@@ -2086,7 +3878,7 @@
       <c r="D4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="26" t="s">
         <v>113</v>
       </c>
       <c r="F4" s="16">
@@ -2229,8 +4021,8 @@
       </c>
     </row>
     <row r="5" spans="1:57" ht="26">
-      <c r="A5" s="15" t="s">
-        <v>62</v>
+      <c r="A5" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="B5" s="16">
         <v>20</v>
@@ -2241,7 +4033,7 @@
       <c r="D5" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="26" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="16">
@@ -2386,8 +4178,8 @@
       </c>
     </row>
     <row r="6" spans="1:57" ht="26">
-      <c r="A6" s="15" t="s">
-        <v>103</v>
+      <c r="A6" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="B6" s="16">
         <v>20</v>
@@ -2398,8 +4190,8 @@
       <c r="D6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>108</v>
+      <c r="E6" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="F6" s="16">
         <v>0.6</v>
@@ -2555,8 +4347,8 @@
       </c>
     </row>
     <row r="7" spans="1:57" ht="26">
-      <c r="A7" s="15" t="s">
-        <v>104</v>
+      <c r="A7" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="16">
         <v>20</v>
@@ -2567,8 +4359,8 @@
       <c r="D7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>114</v>
+      <c r="E7" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="F7" s="16">
         <v>0.6</v>
@@ -2728,8 +4520,8 @@
       </c>
     </row>
     <row r="8" spans="1:57" ht="26">
-      <c r="A8" s="25" t="s">
-        <v>124</v>
+      <c r="A8" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="16">
         <v>200</v>
@@ -2740,8 +4532,8 @@
       <c r="D8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>115</v>
+      <c r="E8" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="F8" s="16">
         <v>0.6</v>
@@ -2901,8 +4693,8 @@
       </c>
     </row>
     <row r="9" spans="1:57" ht="26">
-      <c r="A9" s="15" t="s">
-        <v>111</v>
+      <c r="A9" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="B9" s="16">
         <v>20</v>
@@ -2913,8 +4705,8 @@
       <c r="D9" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>116</v>
+      <c r="E9" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="F9" s="16">
         <v>0.6</v>
@@ -3073,8 +4865,14 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" ht="25">
+      <c r="A10" s="26"/>
       <c r="C10" s="9"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:57" ht="25">
+      <c r="A11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="13" spans="1:57">
       <c r="C13" s="9"/>
@@ -3092,7 +4890,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1A843E-83C9-BB43-ADF3-1D812DE7C185}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73430DF0-0BDA-5147-9BDF-AF882DDFB071}">
   <dimension ref="A1:BE9"/>
   <sheetViews>
@@ -4666,7 +6479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D72410-68FD-194A-A9E6-EF0845A91538}">
   <dimension ref="A1:BF9"/>
   <sheetViews>
@@ -6267,7 +8080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG27"/>
   <sheetViews>
